--- a/testData/backup_restore_test_data.xlsx
+++ b/testData/backup_restore_test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,18 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称简写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备份系统和实体配置成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还原后检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色信息还原完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,15 +189,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cyyx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.23</t>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +228,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,12 +275,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,9 +300,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +601,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -677,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2">
         <v>514</v>
@@ -732,7 +727,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -744,7 +739,8 @@
     <col min="8" max="8" width="9.375" customWidth="1"/>
     <col min="10" max="11" width="16.125" customWidth="1"/>
     <col min="12" max="12" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="5.75" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
     <col min="16" max="16" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,10 +802,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -824,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -838,11 +834,11 @@
       <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
+      <c r="N2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>30</v>
@@ -850,17 +846,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -871,13 +871,12 @@
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="20.625" customWidth="1"/>
-    <col min="17" max="17" width="16.375" customWidth="1"/>
-    <col min="18" max="19" width="8.875" customWidth="1"/>
-    <col min="20" max="20" width="8.625" customWidth="1"/>
-    <col min="21" max="21" width="21.25" customWidth="1"/>
+    <col min="14" max="15" width="8.875" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,31 +917,19 @@
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -950,7 +937,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>514</v>
@@ -971,39 +958,27 @@
         <v>418</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
         <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
